--- a/sriramModel-nelson-melancholic-patientID_13-sims-crh-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_13-sims-crh-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.00869860678212</v>
+        <v>1.102262218047757</v>
       </c>
       <c r="C2">
-        <v>0.9841841318987617</v>
+        <v>1.042210266817969</v>
       </c>
       <c r="D2">
-        <v>1.01680166828488</v>
+        <v>1.027516287019546</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.103553341818466</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.122353111059021</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.017292799706677</v>
+        <v>1.202770324282352</v>
       </c>
       <c r="C3">
-        <v>0.9684882277180661</v>
+        <v>1.084225102862362</v>
       </c>
       <c r="D3">
-        <v>1.033463185111234</v>
+        <v>1.054648365409807</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.206458356255575</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.243275554400143</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.025784072539829</v>
+        <v>1.301574697275297</v>
       </c>
       <c r="C4">
-        <v>0.9529144247698348</v>
+        <v>1.126047691394242</v>
       </c>
       <c r="D4">
-        <v>1.0499863410648</v>
+        <v>1.081409830263117</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.308731729616368</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.362804600434933</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.034173890799423</v>
+        <v>1.398720789209393</v>
       </c>
       <c r="C5">
-        <v>0.9374649069155656</v>
+        <v>1.167681122839372</v>
       </c>
       <c r="D5">
-        <v>1.066372891545487</v>
+        <v>1.107813460776457</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.410389402964675</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.480973516658507</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.042463692319723</v>
+        <v>1.494249533169065</v>
       </c>
       <c r="C6">
-        <v>0.9221419045086919</v>
+        <v>1.209128399403101</v>
       </c>
       <c r="D6">
-        <v>1.082624557700917</v>
+        <v>1.133871289406051</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.511446582193708</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.597811955721424</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.050654887782385</v>
+        <v>1.588197812162081</v>
       </c>
       <c r="C7">
-        <v>0.9069476941901577</v>
+        <v>1.250392437082701</v>
       </c>
       <c r="D7">
-        <v>1.098743027323454</v>
+        <v>1.159594648738206</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.611917795127533</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.713346192439847</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.058748861211492</v>
+        <v>1.680598923455183</v>
       </c>
       <c r="C8">
-        <v>0.8918845985198061</v>
+        <v>1.291476067468375</v>
       </c>
       <c r="D8">
-        <v>1.114729955711437</v>
+        <v>1.184994237704047</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.711816923187948</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.827599526125106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.066746970430458</v>
+        <v>1.771482839741598</v>
       </c>
       <c r="C9">
-        <v>0.876954985424551</v>
+        <v>1.332382039534669</v>
       </c>
       <c r="D9">
-        <v>1.130586966495016</v>
+        <v>1.210080159059334</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.811157220540882</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.940592442140264</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.074650547478251</v>
+        <v>1.860876498928762</v>
       </c>
       <c r="C10">
-        <v>0.8621612674417821</v>
+        <v>1.373113021080516</v>
       </c>
       <c r="D10">
-        <v>1.146315652426994</v>
+        <v>1.23486196171903</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.90995133632896</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.052342850272171</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.082460898982031</v>
+        <v>1.948804083625187</v>
       </c>
       <c r="C11">
-        <v>0.8475059007348854</v>
+        <v>1.413671599611284</v>
       </c>
       <c r="D11">
-        <v>1.161917576138835</v>
+        <v>1.25934867760521</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.008211334317742</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.16286625856574</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.090179306482808</v>
+        <v>2.035287236018474</v>
       </c>
       <c r="C12">
-        <v>0.8329913838556233</v>
+        <v>1.454060282812979</v>
       </c>
       <c r="D12">
-        <v>1.177394270861686</v>
+        <v>1.283548850431103</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.105948706368904</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.272175910314713</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.097807026710186</v>
+        <v>2.120345247405696</v>
       </c>
       <c r="C13">
-        <v>0.8186202562258774</v>
+        <v>1.494281498575271</v>
       </c>
       <c r="D13">
-        <v>1.19274724111196</v>
+        <v>1.307470563912734</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.203174379835426</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.380282921036209</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.10534529180164</v>
+        <v>2.203995237447399</v>
       </c>
       <c r="C14">
-        <v>0.8043950963087466</v>
+        <v>1.534337594643736</v>
       </c>
       <c r="D14">
-        <v>1.207977963340632</v>
+        <v>1.331121469989057</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.299898719623396</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.487196393939461</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.112795309461012</v>
+        <v>2.286252272529351</v>
       </c>
       <c r="C15">
-        <v>0.7903185194364679</v>
+        <v>1.574230837492704</v>
       </c>
       <c r="D15">
-        <v>1.223087886544944</v>
+        <v>1.354508811594764</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.396131524874176</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.592923521027206</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.120158263050152</v>
+        <v>2.367129490312314</v>
       </c>
       <c r="C16">
-        <v>0.7763931752596459</v>
+        <v>1.613963410529859</v>
       </c>
       <c r="D16">
-        <v>1.238078432840687</v>
+        <v>1.377639439837794</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.491882019543873</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.697469670045529</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.127435311606623</v>
+        <v>2.446638258277357</v>
       </c>
       <c r="C17">
-        <v>0.7626217447792828</v>
+        <v>1.653537411693239</v>
       </c>
       <c r="D17">
-        <v>1.252950997992535</v>
+        <v>1.400519826144488</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.587158831386756</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.800838439559878</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.134627589779333</v>
+        <v>2.524788264266489</v>
       </c>
       <c r="C18">
-        <v>0.7490069369193899</v>
+        <v>1.692954850016966</v>
       </c>
       <c r="D18">
-        <v>1.267706951899117</v>
+        <v>1.423156075388261</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.681969979108641</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2.90303175166917</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.141736207672693</v>
+        <v>2.601587600852182</v>
       </c>
       <c r="C19">
-        <v>0.7355514845943626</v>
+        <v>1.732217641082118</v>
       </c>
       <c r="D19">
-        <v>1.282347639028512</v>
+        <v>1.445553935813013</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.776322829732015</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>3.004049857566385</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.14876225058849</v>
+        <v>2.677042846724745</v>
       </c>
       <c r="C20">
-        <v>0.7222581402208066</v>
+        <v>1.771327604105073</v>
       </c>
       <c r="D20">
-        <v>1.296874378798616</v>
+        <v>1.467718806895065</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.870224057415392</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>3.10389139553032</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.15570677865291</v>
+        <v>2.751159109337593</v>
       </c>
       <c r="C21">
-        <v>0.7091296706186454</v>
+        <v>1.810286453096271</v>
       </c>
       <c r="D21">
-        <v>1.311288465895305</v>
+        <v>1.489655741978744</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.963679606430841</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3.202553433046746</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.162570826314312</v>
+        <v>2.823940087946011</v>
       </c>
       <c r="C22">
-        <v>0.6961688512406081</v>
+        <v>1.849095789928546</v>
       </c>
       <c r="D22">
-        <v>1.325591170519395</v>
+        <v>1.5113694561973</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3.056694591714063</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>3.300031466099842</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.169355401695001</v>
+        <v>2.895388130292962</v>
       </c>
       <c r="C23">
-        <v>0.6833784596623126</v>
+        <v>1.887757094896191</v>
       </c>
       <c r="D23">
-        <v>1.339783738551026</v>
+        <v>1.532864305699061</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3.149273235725977</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>3.396319446751236</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.176061485777629</v>
+        <v>2.965504273065549</v>
       </c>
       <c r="C24">
-        <v>0.6707612682572953</v>
+        <v>1.926271716536526</v>
       </c>
       <c r="D24">
-        <v>1.353867391617064</v>
+        <v>1.554144312386529</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3.241418785193197</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3.491409800446061</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.182690031403731</v>
+        <v>3.034288280089361</v>
       </c>
       <c r="C25">
-        <v>0.658320035971205</v>
+        <v>1.964640859347379</v>
       </c>
       <c r="D25">
-        <v>1.3678433270433</v>
+        <v>1.575213110663567</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3.333133375683612</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3.585293405540534</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.18924196205822</v>
+        <v>3.101738664964631</v>
       </c>
       <c r="C26">
-        <v>0.6460574990974782</v>
+        <v>2.002865569274858</v>
       </c>
       <c r="D26">
-        <v>1.381712717668391</v>
+        <v>1.596073977451587</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3.424417902719788</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>3.677959601012075</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.195718170409252</v>
+        <v>3.167852709006532</v>
       </c>
       <c r="C27">
-        <v>0.6339763609406157</v>
+        <v>2.04094671693721</v>
       </c>
       <c r="D27">
-        <v>1.395476711490345</v>
+        <v>1.616729771476561</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3.515271895577833</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>3.769396177224609</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.202119516567687</v>
+        <v>3.23262647726329</v>
       </c>
       <c r="C28">
-        <v>0.6220792802340404</v>
+        <v>2.078884978179662</v>
       </c>
       <c r="D28">
-        <v>1.409136431108486</v>
+        <v>1.637182943517979</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3.60569329574124</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>3.859589343586193</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.208446826024154</v>
+        <v>3.296054827062254</v>
       </c>
       <c r="C29">
-        <v>0.6103688581532487</v>
+        <v>2.116680813051846</v>
       </c>
       <c r="D29">
-        <v>1.422692972913727</v>
+        <v>1.657435482342001</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3.695678256508111</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3.948523715924356</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.21470088721411</v>
+        <v>3.358131413231856</v>
       </c>
       <c r="C30">
-        <v>0.5988476237315731</v>
+        <v>2.154334439867534</v>
       </c>
       <c r="D30">
-        <v>1.436147405967099</v>
+        <v>1.677488889348705</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3.785220941805273</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>4.036182285500026</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.220882448652291</v>
+        <v>3.41884868504958</v>
       </c>
       <c r="C31">
-        <v>0.5875180174412316</v>
+        <v>2.191845807397315</v>
       </c>
       <c r="D31">
-        <v>1.449500770489806</v>
+        <v>1.697344140656648</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3.87431320021857</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>4.122546370759001</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.226992215566946</v>
+        <v>3.478197878448183</v>
       </c>
       <c r="C32">
-        <v>0.5763823726429526</v>
+        <v>2.229214562767711</v>
       </c>
       <c r="D32">
-        <v>1.462754075866516</v>
+        <v>1.717001600761311</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3.962944262662247</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>4.207595586574088</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.233030845950702</v>
+        <v>3.536169003167939</v>
       </c>
       <c r="C33">
-        <v>0.5654428945288167</v>
+        <v>2.266440014773723</v>
       </c>
       <c r="D33">
-        <v>1.475908298035719</v>
+        <v>1.736461021215091</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4.05110043941153</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>4.291307791712668</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.238998945928523</v>
+        <v>3.592750823991718</v>
       </c>
       <c r="C34">
-        <v>0.5547016360759651</v>
+        <v>2.303521094499944</v>
       </c>
       <c r="D34">
-        <v>1.488964376104914</v>
+        <v>1.755721382882521</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>4.138764656468391</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>4.373659026133526</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.244897064323059</v>
+        <v>3.647930838710649</v>
       </c>
       <c r="C35">
-        <v>0.5441604703864581</v>
+        <v>2.340456307382738</v>
       </c>
       <c r="D35">
-        <v>1.50192320798133</v>
+        <v>1.774780897343111</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>4.225916014875025</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>4.454623457064484</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.250725686272535</v>
+        <v>3.701695247120556</v>
       </c>
       <c r="C36">
-        <v>0.5338210585914248</v>
+        <v>2.37724368209638</v>
       </c>
       <c r="D36">
-        <v>1.514785644747547</v>
+        <v>1.793636815662612</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>4.31252935467088</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>4.534173304341292</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.25648522572536</v>
+        <v>3.754028916988585</v>
       </c>
       <c r="C37">
-        <v>0.5236848122348066</v>
+        <v>2.413880712332125</v>
       </c>
       <c r="D37">
-        <v>1.527552483431918</v>
+        <v>1.812285384192434</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>4.398574619801945</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>4.612278762605998</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.262176016597146</v>
+        <v>3.804915343469229</v>
       </c>
       <c r="C38">
-        <v>0.5137528486872153</v>
+        <v>2.450364290633585</v>
       </c>
       <c r="D38">
-        <v>1.540224457719438</v>
+        <v>1.83072165004831</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>4.484016250386055</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>4.688907923647113</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.267798302327226</v>
+        <v>3.854336601807772</v>
       </c>
       <c r="C39">
-        <v>0.5040259376439979</v>
+        <v>2.486690637510073</v>
       </c>
       <c r="D39">
-        <v>1.552802226013184</v>
+        <v>1.848939346311738</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>4.568812583352795</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>4.764026676263286</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.273352223510859</v>
+        <v>3.90227329650067</v>
       </c>
       <c r="C40">
-        <v>0.4945044360741964</v>
+        <v>2.522855215844261</v>
       </c>
       <c r="D40">
-        <v>1.56528635607894</v>
+        <v>1.866930635443916</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>4.65291503368134</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>4.837598599071097</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.278837803206908</v>
+        <v>3.948704499233168</v>
       </c>
       <c r="C41">
-        <v>0.4851882080370087</v>
+        <v>2.55885263923759</v>
       </c>
       <c r="D41">
-        <v>1.57767730527587</v>
+        <v>1.88468591157881</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>4.73626731178269</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>4.909584865249716</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.284254929422794</v>
+        <v>3.993607683819611</v>
       </c>
       <c r="C42">
-        <v>0.4760765244678904</v>
+        <v>2.594676567825009</v>
       </c>
       <c r="D42">
-        <v>1.589975395075893</v>
+        <v>1.902193553142177</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>4.818804658375901</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>4.97994410922779</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.289603334153985</v>
+        <v>4.03695865331685</v>
       </c>
       <c r="C43">
-        <v>0.4671679362028206</v>
+        <v>2.630319589594583</v>
       </c>
       <c r="D43">
-        <v>1.602180778184882</v>
+        <v>1.91943962642641</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4.900452880348468</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>5.04863229577829</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.29488256819696</v>
+        <v>4.07873145439167</v>
       </c>
       <c r="C44">
-        <v>0.4584601109863676</v>
+        <v>2.665773092824832</v>
       </c>
       <c r="D44">
-        <v>1.614293396077635</v>
+        <v>1.936407557861841</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>4.981127461890031</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>5.115602596491794</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.300091970748855</v>
+        <v>4.118898299004869</v>
       </c>
       <c r="C45">
-        <v>0.449949621531613</v>
+        <v>2.70102711152211</v>
       </c>
       <c r="D45">
-        <v>1.626312924112284</v>
+        <v>1.953077714565497</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>5.060732705958336</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>5.180805221912844</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.30523063254137</v>
+        <v>4.157429472802055</v>
       </c>
       <c r="C46">
-        <v>0.44163166707597</v>
+        <v>2.736070158405426</v>
       </c>
       <c r="D46">
-        <v>1.638238700567113</v>
+        <v>1.969426968536417</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>5.13916078236836</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>5.244187260570236</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.310297350914345</v>
+        <v>4.194293227220887</v>
       </c>
       <c r="C47">
-        <v>0.4334997037152622</v>
+        <v>2.770889033894598</v>
       </c>
       <c r="D47">
-        <v>1.650069634894723</v>
+        <v>1.985428194889399</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>5.216290970176477</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>5.305692526579338</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.315290574784283</v>
+        <v>4.229455673007161</v>
       </c>
       <c r="C48">
-        <v>0.4255449497601511</v>
+        <v>2.805468606485923</v>
       </c>
       <c r="D48">
-        <v>1.661804089189695</v>
+        <v>2.001049739058972</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>5.291988943780588</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>5.3652613537314</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.320208336873451</v>
+        <v>4.262880668140235</v>
       </c>
       <c r="C49">
-        <v>0.4177557198867823</v>
+        <v>2.839791574967291</v>
       </c>
       <c r="D49">
-        <v>1.673439725249906</v>
+        <v>2.016254772581842</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>5.366106154214705</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>5.422830410646019</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.325048169796878</v>
+        <v>4.294529703709546</v>
       </c>
       <c r="C50">
-        <v>0.4101165256592848</v>
+        <v>2.873838177015041</v>
       </c>
       <c r="D50">
-        <v>1.684973307657675</v>
+        <v>2.031000648658235</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>5.438479737200546</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>5.478332518362258</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.329807001584225</v>
+        <v>4.324361787808019</v>
       </c>
       <c r="C51">
-        <v>0.4026068597746271</v>
+        <v>2.907585871042967</v>
       </c>
       <c r="D51">
-        <v>1.696400451005284</v>
+        <v>2.045238203564231</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>5.508932628069907</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>5.531696421794421</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.33448102486747</v>
+        <v>4.35233366311606</v>
       </c>
       <c r="C52">
-        <v>0.3951995581667445</v>
+        <v>2.94100912860811</v>
       </c>
       <c r="D52">
-        <v>1.707715296829752</v>
+        <v>2.058911079937268</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>5.577275683086099</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>5.582846611355593</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.541170975397835</v>
+        <v>5.043998744427149</v>
       </c>
       <c r="C53">
-        <v>0.8775475845808984</v>
+        <v>3.385291779285581</v>
       </c>
       <c r="D53">
-        <v>1.956048287441827</v>
+        <v>2.511078719055414</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>6.484591039615638</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>6.471387719250536</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.745256126736271</v>
+        <v>5.714036639509974</v>
       </c>
       <c r="C54">
-        <v>1.352666688836413</v>
+        <v>3.825479155488445</v>
       </c>
       <c r="D54">
-        <v>2.202219040174084</v>
+        <v>2.954555511805726</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>7.366104546509273</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>7.334897752317928</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.946786102254318</v>
+        <v>6.362305273948198</v>
       </c>
       <c r="C55">
-        <v>1.822479022389526</v>
+        <v>4.261281733720771</v>
       </c>
       <c r="D55">
-        <v>2.446185570881362</v>
+        <v>3.388944171655853</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>8.219792044649758</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>8.172798973460552</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.145779821612616</v>
+        <v>6.988531384304655</v>
       </c>
       <c r="C56">
-        <v>2.286875839342481</v>
+        <v>4.692341476341601</v>
       </c>
       <c r="D56">
-        <v>2.687856590411769</v>
+        <v>3.81361212671428</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>9.043522188870538</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>8.984372462093626</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.342222672346856</v>
+        <v>7.592337590145852</v>
       </c>
       <c r="C57">
-        <v>2.744989901274187</v>
+        <v>5.118227294510008</v>
       </c>
       <c r="D57">
-        <v>2.927082936657461</v>
+        <v>4.227739011026441</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>9.835105360141824</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>9.768780964666096</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.536062050550888</v>
+        <v>8.173260494537134</v>
       </c>
       <c r="C58">
-        <v>3.195400479982204</v>
+        <v>5.538427819865218</v>
       </c>
       <c r="D58">
-        <v>3.163646776068096</v>
+        <v>4.630348488838963</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>10.59235093315999</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>10.5250844353618</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.727200923531374</v>
+        <v>8.730767365470317</v>
       </c>
       <c r="C59">
-        <v>3.636140493878901</v>
+        <v>5.952342913656731</v>
       </c>
       <c r="D59">
-        <v>3.397248577320129</v>
+        <v>5.020335132353253</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>11.31312782291383</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>11.25225273123764</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.915488953581852</v>
+        <v>9.264269274261029</v>
       </c>
       <c r="C60">
-        <v>4.06465615924793</v>
+        <v>6.359274363438981</v>
       </c>
       <c r="D60">
-        <v>3.627492093924714</v>
+        <v>5.396492183721956</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>11.99543453951775</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>11.94917724131165</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.100710613453419</v>
+        <v>9.773134331112237</v>
       </c>
       <c r="C61">
-        <v>4.47777592111021</v>
+        <v>6.758413737244061</v>
       </c>
       <c r="D61">
-        <v>3.853867989168567</v>
+        <v>5.757543023765841</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>12.6374705609421</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>12.61468320816776</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.282569654613902</v>
+        <v>10.2567033757553</v>
       </c>
       <c r="C62">
-        <v>4.871731636055054</v>
+        <v>7.148831558125156</v>
       </c>
       <c r="D62">
-        <v>4.075737341380084</v>
+        <v>6.102179857556638</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>13.23770873917171</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>13.24754489071014</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.460669331459037</v>
+        <v>10.71430786448991</v>
       </c>
       <c r="C63">
-        <v>5.242273819958996</v>
+        <v>7.5294655699508</v>
       </c>
       <c r="D63">
-        <v>4.292317104617719</v>
+        <v>6.429109339084117</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>13.7949663629905</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>13.84650515384921</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.634488075861567</v>
+        <v>11.14529224291572</v>
       </c>
       <c r="C64">
-        <v>5.584914869411781</v>
+        <v>7.899110743329283</v>
       </c>
       <c r="D64">
-        <v>4.502670635928638</v>
+        <v>6.737104840089451</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>14.30846773102174</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>14.41030148067805</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.803351090680137</v>
+        <v>11.54904173687649</v>
       </c>
       <c r="C65">
-        <v>5.8953086053051</v>
+        <v>8.256413480652249</v>
       </c>
       <c r="D65">
-        <v>4.705707488044175</v>
+        <v>7.025062964887947</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>14.77789455154493</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>14.93770051927613</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.966399933205729</v>
+        <v>11.92501625287025</v>
       </c>
       <c r="C66">
-        <v>6.169728784721372</v>
+        <v>8.599872851400226</v>
       </c>
       <c r="D66">
-        <v>4.900197484652717</v>
+        <v>7.292060560808351</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>15.20341924626452</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>15.4275432461838</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.122564987995605</v>
+        <v>12.27279053817865</v>
       </c>
       <c r="C67">
-        <v>6.405556016158267</v>
+        <v>8.927853697721565</v>
       </c>
       <c r="D67">
-        <v>5.084804118626708</v>
+        <v>7.537407369298269</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>15.5857173390462</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>15.87880246018458</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.270549989411392</v>
+        <v>12.59209929906746</v>
       </c>
       <c r="C68">
-        <v>6.601649800612569</v>
+        <v>9.238617297172855</v>
       </c>
       <c r="D68">
-        <v>5.258140891869255</v>
+        <v>7.760688966724301</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>15.92595701152783</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>16.29065327711595</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.408842891312239</v>
+        <v>12.88288424873442</v>
       </c>
       <c r="C69">
-        <v>6.758497966343285</v>
+        <v>9.53037565909597</v>
       </c>
       <c r="D69">
-        <v>5.418850823220768</v>
+        <v>7.961795139603013</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>16.22576561641451</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>16.66255452411269</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.535771206379175</v>
+        <v>13.14533799621061</v>
       </c>
       <c r="C70">
-        <v>6.878102365801547</v>
+        <v>9.801374618248982</v>
       </c>
       <c r="D70">
-        <v>5.565704024643797</v>
+        <v>8.140930235934514</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>16.48717525280339</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>16.99433967557122</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.6496180600128</v>
+        <v>13.37993791651219</v>
       </c>
       <c r="C71">
-        <v>6.963645685579589</v>
+        <v>10.05000699946349</v>
       </c>
       <c r="D71">
-        <v>5.697702032563871</v>
+        <v>8.298604188613625</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>16.71255145447781</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>17.28630249865403</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.748802292612514</v>
+        <v>13.58746293882888</v>
       </c>
       <c r="C72">
-        <v>7.0190444810499</v>
+        <v>10.27494991982049</v>
       </c>
       <c r="D72">
-        <v>5.814172592992221</v>
+        <v>8.435605384197206</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>16.90451038871167</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>17.53926813725784</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.832100405114505</v>
+        <v>13.76898728730921</v>
       </c>
       <c r="C73">
-        <v>7.048503096852842</v>
+        <v>10.47531025902072</v>
       </c>
       <c r="D73">
-        <v>5.91483733018474</v>
+        <v>8.552958732240345</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>17.06583086269151</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>17.75463217279652</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.898858475102705</v>
+        <v>13.92584960674343</v>
       </c>
       <c r="C74">
-        <v>7.056150507195489</v>
+        <v>10.65075259494349</v>
       </c>
       <c r="D74">
-        <v>5.99983869925585</v>
+        <v>8.651873858288287</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>17.19936727992939</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>17.93435219326201</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.949127456394647</v>
+        <v>14.05960067821043</v>
       </c>
       <c r="C75">
-        <v>7.045794617804385</v>
+        <v>10.80157950715807</v>
       </c>
       <c r="D75">
-        <v>6.069721159132969</v>
+        <v>8.733688927658473</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>17.30796898305319</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>18.08088400554358</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.983672489760816</v>
+        <v>14.1719372050685</v>
       </c>
       <c r="C76">
-        <v>7.020789817013282</v>
+        <v>10.92873995160199</v>
       </c>
       <c r="D76">
-        <v>6.125371690279905</v>
+        <v>8.799815268863442</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>17.39441018473526</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>18.19706731772735</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.00385246967103</v>
+        <v>14.26463146932416</v>
       </c>
       <c r="C77">
-        <v>6.983992827006285</v>
+        <v>11.03375826619889</v>
       </c>
       <c r="D77">
-        <v>6.167932898927123</v>
+        <v>8.851686949202795</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>17.46133317512871</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>18.28597688893861</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.011413720337685</v>
+        <v>14.33946583346661</v>
       </c>
       <c r="C78">
-        <v>6.937776876734474</v>
+        <v>11.11859741668408</v>
       </c>
       <c r="D78">
-        <v>6.198705435932125</v>
+        <v>8.890718074401066</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>17.51120596897319</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>18.35076642966304</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.008263408498047</v>
+        <v>14.39817806619537</v>
       </c>
       <c r="C79">
-        <v>6.884078252960503</v>
+        <v>11.18548651177579</v>
       </c>
       <c r="D79">
-        <v>6.219055035104463</v>
+        <v>8.918269173804335</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>17.54629416533596</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>18.39452098325286</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.996277779329404</v>
+        <v>14.44242078582025</v>
       </c>
       <c r="C80">
-        <v>6.824456508547963</v>
+        <v>11.23674731409833</v>
       </c>
       <c r="D80">
-        <v>6.230334794377548</v>
+        <v>8.935622829930217</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>17.56864585135347</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>18.42014849808267</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.977172350460835</v>
+        <v>14.47373481274883</v>
       </c>
       <c r="C81">
-        <v>6.760156570204519</v>
+        <v>11.27464750444738</v>
       </c>
       <c r="D81">
-        <v>6.233827701895263</v>
+        <v>8.943967838509474</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>17.58008752893618</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>18.43030364680495</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.952434878858365</v>
+        <v>14.49353461029367</v>
       </c>
       <c r="C82">
-        <v>6.692166329524038</v>
+        <v>11.3012952372684</v>
       </c>
       <c r="D82">
-        <v>6.230709665223716</v>
+        <v>8.944390654555514</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>17.58222883422785</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>18.4273504527573</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.923307012926249</v>
+        <v>14.50310319201194</v>
       </c>
       <c r="C83">
-        <v>6.621266866432745</v>
+        <v>11.31857698240617</v>
       </c>
       <c r="D83">
-        <v>6.222030266350353</v>
+        <v>8.937872680496934</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>17.57647371475761</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>18.41335231441007</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.890796773854853</v>
+        <v>14.50359387478346</v>
       </c>
       <c r="C84">
-        <v>6.548074582732168</v>
+        <v>11.3281319298284</v>
       </c>
       <c r="D84">
-        <v>6.208707123150669</v>
+        <v>8.925291923038136</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>17.56403590672952</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>18.3900834509257</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.855706692352141</v>
+        <v>14.49603605734686</v>
       </c>
       <c r="C85">
-        <v>6.473075655573107</v>
+        <v>11.33135274908251</v>
       </c>
       <c r="D85">
-        <v>6.191529631921291</v>
+        <v>8.907427693127049</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>17.54595607942355</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>18.35905252596575</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.811692473891936</v>
+        <v>14.42330734187479</v>
       </c>
       <c r="C86">
-        <v>6.390745890187457</v>
+        <v>11.30789561049665</v>
       </c>
       <c r="D86">
-        <v>6.156850663863782</v>
+        <v>8.855056951422412</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>17.49856841578274</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>18.28884278517478</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.767751085924847</v>
+        <v>14.35007004336247</v>
       </c>
       <c r="C87">
-        <v>6.308392557438907</v>
+        <v>11.28403801760658</v>
       </c>
       <c r="D87">
-        <v>6.122017292949915</v>
+        <v>8.802362358245603</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>17.45083095454891</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>18.21818873908908</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.723920886608792</v>
+        <v>14.27639641277375</v>
       </c>
       <c r="C88">
-        <v>6.226039902900308</v>
+        <v>11.25985915458104</v>
       </c>
       <c r="D88">
-        <v>6.087076776301997</v>
+        <v>8.749398622673091</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>17.40281258711583</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>18.14717796905288</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.680231571621562</v>
+        <v>14.20235012233543</v>
       </c>
       <c r="C89">
-        <v>6.143707226358111</v>
+        <v>11.23542297897263</v>
       </c>
       <c r="D89">
-        <v>6.052068405873394</v>
+        <v>8.696211903791594</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>17.35456699986229</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>18.07588497137089</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.636706124446605</v>
+        <v>14.12798737199973</v>
       </c>
       <c r="C90">
-        <v>6.06140994675029</v>
+        <v>11.2107813263401</v>
       </c>
       <c r="D90">
-        <v>6.017024730677373</v>
+        <v>8.642842341465446</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>17.30613932669783</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>18.00437180671605</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.593362356725809</v>
+        <v>14.05335779873801</v>
       </c>
       <c r="C91">
-        <v>5.979160434237407</v>
+        <v>11.18597615943776</v>
       </c>
       <c r="D91">
-        <v>5.981972647967178</v>
+        <v>8.589324892846101</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>17.25756742932525</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>17.93269021004998</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.550214106796632</v>
+        <v>13.97850524999902</v>
       </c>
       <c r="C92">
-        <v>5.896968660244791</v>
+        <v>11.1610414631065</v>
       </c>
       <c r="D92">
-        <v>5.94693435249235</v>
+        <v>8.53568982975384</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>17.20888320045825</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>17.86088330966473</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.507272163412674</v>
+        <v>13.90346849169231</v>
       </c>
       <c r="C93">
-        <v>5.814842705660952</v>
+        <v>11.13600458846991</v>
       </c>
       <c r="D93">
-        <v>5.911928147076321</v>
+        <v>8.481963334896987</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>17.16011324457062</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>17.78898710101237</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.464544973535541</v>
+        <v>13.82828182918567</v>
       </c>
       <c r="C94">
-        <v>5.732789158696644</v>
+        <v>11.11088774792221</v>
       </c>
       <c r="D94">
-        <v>5.876969125517134</v>
+        <v>8.428168219708246</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>17.11127988599977</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>17.71703166673151</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.422039182960855</v>
+        <v>13.75297575986797</v>
       </c>
       <c r="C95">
-        <v>5.650813426957257</v>
+        <v>11.08570900916943</v>
       </c>
       <c r="D95">
-        <v>5.842069742306844</v>
+        <v>8.374324281258227</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>17.0624019137118</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>17.64504231794292</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.379760048735028</v>
+        <v>13.67757729047991</v>
       </c>
       <c r="C96">
-        <v>5.568919982818818</v>
+        <v>11.06048304234317</v>
       </c>
       <c r="D96">
-        <v>5.807240284555064</v>
+        <v>8.320448701916014</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>17.01349514370856</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>17.57304022673227</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.337711753812085</v>
+        <v>13.60211034016531</v>
       </c>
       <c r="C97">
-        <v>5.48711255685503</v>
+        <v>11.03522182240336</v>
       </c>
       <c r="D97">
-        <v>5.772489260912975</v>
+        <v>8.266556438237732</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>16.9645728715466</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>17.50104318700755</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.295897647369076</v>
+        <v>13.5265962826084</v>
       </c>
       <c r="C98">
-        <v>5.405394290810444</v>
+        <v>11.00993512617156</v>
       </c>
       <c r="D98">
-        <v>5.737823720953243</v>
+        <v>8.212660500367157</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>16.91564625178072</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>17.42906621007177</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4.254320428696557</v>
+        <v>13.45105422434058</v>
       </c>
       <c r="C99">
-        <v>5.32376785897071</v>
+        <v>10.9846309809587</v>
       </c>
       <c r="D99">
-        <v>5.703249516816663</v>
+        <v>8.158772229740284</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>16.86672471384936</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>17.35712200738956</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4.212982288234891</v>
+        <v>13.37550123443804</v>
       </c>
       <c r="C100">
-        <v>5.242235564818172</v>
+        <v>10.95931601344419</v>
       </c>
       <c r="D100">
-        <v>5.668771517248833</v>
+        <v>8.104901554236857</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>16.81781629230177</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>17.28522139531858</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>4.171885016037153</v>
+        <v>13.29995258499533</v>
       </c>
       <c r="C101">
-        <v>5.160799418318111</v>
+        <v>10.93399569280223</v>
       </c>
       <c r="D101">
-        <v>5.634393782561059</v>
+        <v>8.051057174239372</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>16.76892782910345</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>17.21337357458088</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>4.131030085428603</v>
+        <v>13.2244220008191</v>
       </c>
       <c r="C102">
-        <v>5.079461197994203</v>
+        <v>10.90867454242742</v>
       </c>
       <c r="D102">
-        <v>5.60011970762539</v>
+        <v>7.997246718870413</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>16.72006512827617</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>17.14158639072274</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.090418717736083</v>
+        <v>13.14892181894497</v>
       </c>
       <c r="C103">
-        <v>4.998222501036549</v>
+        <v>10.88335632422944</v>
       </c>
       <c r="D103">
-        <v>5.565952138776962</v>
+        <v>7.943476893754077</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>16.6712331200434</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>17.06986656347969</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>4.050051932531503</v>
+        <v>13.0734631408842</v>
       </c>
       <c r="C104">
-        <v>4.91708478397843</v>
+        <v>10.85804417455861</v>
       </c>
       <c r="D104">
-        <v>5.531893469445926</v>
+        <v>7.889753611730904</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>16.62243601988684</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>16.99821985717124</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>4.009930586756819</v>
+        <v>12.99805599799769</v>
       </c>
       <c r="C105">
-        <v>4.836049395928961</v>
+        <v>10.83274073989174</v>
       </c>
       <c r="D105">
-        <v>5.497945718461047</v>
+        <v>7.836082099860042</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>16.5736774283897</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>16.92665124026354</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>3.97005540529158</v>
+        <v>12.92270948520641</v>
       </c>
       <c r="C106">
-        <v>4.755117605929494</v>
+        <v>10.80744825112295</v>
       </c>
       <c r="D106">
-        <v>5.464110594238048</v>
+        <v>7.782467015055085</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>16.52496048221739</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>16.85516500652102</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>3.930427004910872</v>
+        <v>12.84743185844273</v>
       </c>
       <c r="C107">
-        <v>4.674290625666083</v>
+        <v>10.78216857786385</v>
       </c>
       <c r="D107">
-        <v>5.430389547466419</v>
+        <v>7.728912490236558</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>16.47628784949174</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>16.78376487878445</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>3.891045913112868</v>
+        <v>12.77223061900103</v>
       </c>
       <c r="C108">
-        <v>4.593569628508173</v>
+        <v>10.75690330169246</v>
       </c>
       <c r="D108">
-        <v>5.396783814418352</v>
+        <v>7.675422214550674</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>16.42766194563267</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>16.71245409747427</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>3.851912582970227</v>
+        <v>12.69711259654438</v>
       </c>
       <c r="C109">
-        <v>4.512955765670662</v>
+        <v>10.73165376379031</v>
       </c>
       <c r="D109">
-        <v>5.363294452603341</v>
+        <v>7.621999504527451</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>16.37908478059804</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>16.64123549957874</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>3.813027404871217</v>
+        <v>12.62208402575388</v>
       </c>
       <c r="C110">
-        <v>4.432450180108313</v>
+        <v>10.70642110762105</v>
       </c>
       <c r="D110">
-        <v>5.329922370173339</v>
+        <v>7.568647321640856</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>16.3305580930163</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>16.57011156049899</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>3.774390715827005</v>
+        <v>12.54715061153021</v>
       </c>
       <c r="C111">
-        <v>4.35205401865028</v>
+        <v>10.68120631521085</v>
       </c>
       <c r="D111">
-        <v>5.296668350210699</v>
+        <v>7.515368341412945</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>16.28208340358414</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>16.49908444963482</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3.736002806868585</v>
+        <v>12.47231759712246</v>
       </c>
       <c r="C112">
-        <v>4.271768442781915</v>
+        <v>10.65601023150616</v>
       </c>
       <c r="D112">
-        <v>5.26353307082158</v>
+        <v>7.462164990291022</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>16.23366205621705</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>16.42815608798436</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3.697863928937442</v>
+        <v>12.39758979883698</v>
       </c>
       <c r="C113">
-        <v>4.191594638407551</v>
+        <v>10.63083358544179</v>
       </c>
       <c r="D113">
-        <v>5.230517121796788</v>
+        <v>7.40903947499388</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>16.18529521495204</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>16.35732817824207</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>3.659974297585389</v>
+        <v>12.32297167913677</v>
       </c>
       <c r="C114">
-        <v>4.111533824871087</v>
+        <v>10.60567700930832</v>
       </c>
       <c r="D114">
-        <v>5.197621018445042</v>
+        <v>7.355993809420199</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>16.13698396746223</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>16.2866022423013</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>3.622334096730214</v>
+        <v>12.2484673497433</v>
       </c>
       <c r="C115">
-        <v>4.031587263466847</v>
+        <v>10.58054104910598</v>
       </c>
       <c r="D115">
-        <v>5.164845213099691</v>
+        <v>7.303029845000605</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>16.08872924732149</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>16.21597964551298</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>3.58494348165974</v>
+        <v>12.17408063156261</v>
       </c>
       <c r="C116">
-        <v>3.951756265639411</v>
+        <v>10.55542618167255</v>
       </c>
       <c r="D116">
-        <v>5.132190104707923</v>
+        <v>7.250149283784616</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>16.04053190127581</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>16.14546160718007</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>3.547802581436287</v>
+        <v>12.09981506874232</v>
       </c>
       <c r="C117">
-        <v>3.872042201045745</v>
+        <v>10.53033282457914</v>
       </c>
       <c r="D117">
-        <v>5.099656046835559</v>
+        <v>7.197353699015286</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>15.99239264531016</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>16.07504922533873</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>3.510911500821369</v>
+        <v>12.02567395442222</v>
       </c>
       <c r="C118">
-        <v>3.792446505634594</v>
+        <v>10.50526134590468</v>
       </c>
       <c r="D118">
-        <v>5.067243354361032</v>
+        <v>7.144644553416265</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>15.94431212911144</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>16.00474349266105</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>3.474270321818262</v>
+        <v>11.95166037099245</v>
       </c>
       <c r="C119">
-        <v>3.712970689885333</v>
+        <v>10.48021207056587</v>
       </c>
       <c r="D119">
-        <v>5.03495230908232</v>
+        <v>7.092023212630598</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>15.89629093577459</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>15.93454531011051</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>3.437879104897753</v>
+        <v>11.87777719231132</v>
       </c>
       <c r="C120">
-        <v>3.633616347340768</v>
+        <v>10.45518528603336</v>
       </c>
       <c r="D120">
-        <v>5.002783164421472</v>
+        <v>7.03949095674064</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>15.84832960094213</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>15.86445550138472</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>3.401737889981318</v>
+        <v>11.80402712832653</v>
       </c>
       <c r="C121">
-        <v>3.554385163564911</v>
+        <v>10.43018124802339</v>
       </c>
       <c r="D121">
-        <v>4.970736149378279</v>
+        <v>6.987048991411831</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>15.80042861447316</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>15.79447483166309</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>3.365846697219151</v>
+        <v>11.73041271845264</v>
       </c>
       <c r="C122">
-        <v>3.475278925657253</v>
+        <v>10.40520018495206</v>
       </c>
       <c r="D122">
-        <v>4.938811471858123</v>
+        <v>6.934698459281533</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>15.75258841795572</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>15.72460398558438</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>3.33020552760535</v>
+        <v>11.65693637440625</v>
       </c>
       <c r="C123">
-        <v>3.396299532459291</v>
+        <v>10.38024230126955</v>
       </c>
       <c r="D123">
-        <v>4.907009321477125</v>
+        <v>6.88244044452876</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>15.70480941384644</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>15.65484364288779</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>3.294814363460587</v>
+        <v>11.58360036359938</v>
       </c>
       <c r="C124">
-        <v>3.317449005596914</v>
+        <v>10.35530778123626</v>
       </c>
       <c r="D124">
-        <v>4.875329871929667</v>
+        <v>6.830275982156137</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>15.65709196583258</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>15.58519437941506</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>3.259673168807203</v>
+        <v>11.51040685182772</v>
       </c>
       <c r="C125">
-        <v>3.238729501513942</v>
+        <v>10.33039679208013</v>
       </c>
       <c r="D125">
-        <v>4.84377328299384</v>
+        <v>6.778206064945258</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>15.60943640923007</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>15.51565679118535</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>3.224781889656856</v>
+        <v>11.43735788484605</v>
       </c>
       <c r="C126">
-        <v>3.160143324667877</v>
+        <v>10.30550948525706</v>
       </c>
       <c r="D126">
-        <v>4.812339702222047</v>
+        <v>6.726231647883272</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>15.56184305438732</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>15.44623140956167</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>3.190140454227015</v>
+        <v>11.36445542259969</v>
       </c>
       <c r="C127">
-        <v>3.081692942078908</v>
+        <v>10.28064600134443</v>
       </c>
       <c r="D127">
-        <v>4.781029266378556</v>
+        <v>6.674353653770841</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>15.51431218596415</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>15.37691873235923</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>3.155748773099759</v>
+        <v>11.29170133034966</v>
       </c>
       <c r="C128">
-        <v>3.003380999448515</v>
+        <v>10.25580646633662</v>
       </c>
       <c r="D128">
-        <v>4.749842102658666</v>
+        <v>6.622572978212475</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>15.46684407457402</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>15.30771924854459</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>3.121606739333765</v>
+        <v>11.21909739917664</v>
       </c>
       <c r="C129">
-        <v>2.925210339094968</v>
+        <v>10.23099099974386</v>
       </c>
       <c r="D129">
-        <v>4.718778329722843</v>
+        <v>6.570890492909485</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>15.41943896832366</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>15.23863340341296</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>3.087714228538252</v>
+        <v>11.14664534709162</v>
       </c>
       <c r="C130">
-        <v>2.847184019990935</v>
+        <v>10.20619970824928</v>
       </c>
       <c r="D130">
-        <v>4.687838058576748</v>
+        <v>6.519307049189988</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>15.37209710159203</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>15.16966163627007</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>3.054071098916359</v>
+        <v>11.07434682836385</v>
       </c>
       <c r="C131">
-        <v>2.769305340234574</v>
+        <v>10.18143269364947</v>
       </c>
       <c r="D131">
-        <v>4.657021393319249</v>
+        <v>6.467823481549137</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>15.3248187009145</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>15.10080436165413</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>3.020677191283949</v>
+        <v>11.00220344035347</v>
       </c>
       <c r="C132">
-        <v>2.691577862341301</v>
+        <v>10.15669004851865</v>
       </c>
       <c r="D132">
-        <v>4.626328431779301</v>
+        <v>6.41644061004906</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>15.27760396742197</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>15.03206198342455</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2.987532329068855</v>
+        <v>10.93021672536429</v>
       </c>
       <c r="C133">
-        <v>2.614005441811898</v>
+        <v>10.13197186073961</v>
       </c>
       <c r="D133">
-        <v>4.595759266058151</v>
+        <v>6.365159242508211</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>15.23045310655246</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>14.96343489000217</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>2.954636318294679</v>
+        <v>10.85838818143859</v>
       </c>
       <c r="C134">
-        <v>2.536592259515699</v>
+        <v>10.10727821231836</v>
       </c>
       <c r="D134">
-        <v>4.565313982990982</v>
+        <v>6.313980179246403</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>15.18336629833203</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>14.8949234613235</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>2.921988947552657</v>
+        <v>10.78671925917572</v>
       </c>
       <c r="C135">
-        <v>2.459342858528689</v>
+        <v>10.08260918111129</v>
       </c>
       <c r="D135">
-        <v>4.53499266454006</v>
+        <v>6.262904209906869</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>15.13634372376923</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>14.82652806814909</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2.88958998796445</v>
+        <v>10.71521137386348</v>
       </c>
       <c r="C136">
-        <v>2.382262186191248</v>
+        <v>10.05796484067482</v>
       </c>
       <c r="D136">
-        <v>4.504795388129351</v>
+        <v>6.211932124586621</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>15.08938555021828</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>14.75824906892141</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>2.857439193138291</v>
+        <v>10.64386590166726</v>
       </c>
       <c r="C137">
-        <v>2.305355642303344</v>
+        <v>10.03334526152345</v>
       </c>
       <c r="D137">
-        <v>4.474722226929138</v>
+        <v>6.161064702863799</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>15.04249193936758</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>14.69008682125047</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2.825536299120533</v>
+        <v>10.57268418938501</v>
       </c>
       <c r="C138">
-        <v>2.228629134564639</v>
+        <v>10.008750510322</v>
       </c>
       <c r="D138">
-        <v>4.444773250097884</v>
+        <v>6.110302728501336</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>14.99566304670979</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>14.62204166841993</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>2.79388102434432</v>
+        <v>10.50166755253399</v>
       </c>
       <c r="C139">
-        <v>2.152089142602906</v>
+        <v>9.984180651633638</v>
       </c>
       <c r="D139">
-        <v>4.414948522987402</v>
+        <v>6.059646980932928</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>14.94889902238523</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>14.55411395427746</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>2.76247306957685</v>
+        <v>10.43081728232147</v>
       </c>
       <c r="C140">
-        <v>2.075742792228032</v>
+        <v>9.959635746694033</v>
       </c>
       <c r="D140">
-        <v>4.385248107316544</v>
+        <v>6.009098240085606</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>14.9022000113757</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>14.48630401387013</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>2.731312117866469</v>
+        <v>10.36013464480471</v>
       </c>
       <c r="C141">
-        <v>1.999597941920355</v>
+        <v>9.935115855041746</v>
       </c>
       <c r="D141">
-        <v>4.355672061317885</v>
+        <v>5.958657289001557</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>14.85556615467535</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>14.41861217928515</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>2.700397834490675</v>
+        <v>10.28962088610737</v>
       </c>
       <c r="C142">
-        <v>1.923663284030897</v>
+        <v>9.910621033734639</v>
       </c>
       <c r="D142">
-        <v>4.326220439861094</v>
+        <v>5.90832491128215</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>14.80899758989343</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>14.35103877899461</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>2.669729866905926</v>
+        <v>10.21927723216141</v>
       </c>
       <c r="C143">
-        <v>1.847948463766088</v>
+        <v>9.886151338289094</v>
       </c>
       <c r="D143">
-        <v>4.296893294556282</v>
+        <v>5.858101896030433</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>14.76249444930608</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>14.28358413832953</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>2.639307844700059</v>
+        <v>10.14910489248298</v>
       </c>
       <c r="C144">
-        <v>1.772464219796173</v>
+        <v>9.861706822475819</v>
       </c>
       <c r="D144">
-        <v>4.267690673840042</v>
+        <v>5.807989035791468</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>14.71605686391599</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>14.21624858069695</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>2.609131379547993</v>
+        <v>10.07910506071054</v>
       </c>
       <c r="C145">
-        <v>1.697222551313147</v>
+        <v>9.83728753876156</v>
       </c>
       <c r="D145">
-        <v>4.238612623046547</v>
+        <v>5.757987129813683</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>14.66968495956627</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>14.14903242698088</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>2.579200065171313</v>
+        <v>10.00927891687891</v>
       </c>
       <c r="C146">
-        <v>1.622236917649104</v>
+        <v>9.812893538237573</v>
       </c>
       <c r="D146">
-        <v>4.209659184465716</v>
+        <v>5.708096982648732</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>14.62337886063066</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>14.08193599784072</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>2.54951347730224</v>
+        <v>9.939627628914096</v>
       </c>
       <c r="C147">
-        <v>1.547522478252064</v>
+        <v>9.78852487101401</v>
       </c>
       <c r="D147">
-        <v>4.180830397390217</v>
+        <v>5.658319407288419</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>14.57713868830173</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>14.01495961103326</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>2.520071173652445</v>
+        <v>9.870152352360879</v>
       </c>
       <c r="C148">
-        <v>1.473096383041145</v>
+        <v>9.764181585991265</v>
       </c>
       <c r="D148">
-        <v>4.152126298152757</v>
+        <v>5.608655223734983</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>14.53096456163917</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>13.94810358516938</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>2.490872693887111</v>
+        <v>9.800854235017338</v>
       </c>
       <c r="C149">
-        <v>1.398978126141529</v>
+        <v>9.739863731339941</v>
       </c>
       <c r="D149">
-        <v>4.123546920154984</v>
+        <v>5.559105260921197</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>14.48485659771857</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>13.88136823734148</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>2.461917559604569</v>
+        <v>9.731734417510308</v>
       </c>
       <c r="C150">
-        <v>1.325189979961436</v>
+        <v>9.71557135420613</v>
       </c>
       <c r="D150">
-        <v>4.09509229388909</v>
+        <v>5.509670357138869</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>14.43881491188741</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>13.81475388418258</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2.433205274321826</v>
+        <v>9.662794026869308</v>
       </c>
       <c r="C151">
-        <v>1.251757532279122</v>
+        <v>9.691304501133519</v>
       </c>
       <c r="D151">
-        <v>4.066762446953073</v>
+        <v>5.460351359907564</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>14.392839617807</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>13.74826084272584</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>2.404735323466259</v>
+        <v>9.594034191869321</v>
       </c>
       <c r="C152">
-        <v>1.178710355909422</v>
+        <v>9.667063217875294</v>
       </c>
       <c r="D152">
-        <v>4.038557404060494</v>
+        <v>5.411149127801962</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>14.34693082769574</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>13.68188942944366</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>2.376507174373705</v>
+        <v>9.525456035105281</v>
       </c>
       <c r="C153">
-        <v>1.1060828516541</v>
+        <v>9.64284754965761</v>
       </c>
       <c r="D153">
-        <v>4.010477187045452</v>
+        <v>5.362064529713641</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>14.30108865262853</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>13.61563996157852</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2.348520276293161</v>
+        <v>9.45706066566596</v>
       </c>
       <c r="C154">
-        <v>1.033915319419921</v>
+        <v>9.618657541110213</v>
       </c>
       <c r="D154">
-        <v>3.982521814863389</v>
+        <v>5.313098446527162</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>14.25531320204804</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>13.54951275650205</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>2.320774060398267</v>
+        <v>9.388849199846417</v>
       </c>
       <c r="C155">
-        <v>0.9622553333369063</v>
+        <v>9.594493236424668</v>
       </c>
       <c r="D155">
-        <v>3.954691303588284</v>
+        <v>5.2642517707852</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>14.20960458474889</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>13.48350813246945</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>2.293267939805763</v>
+        <v>9.320822747892228</v>
       </c>
       <c r="C156">
-        <v>0.8911595266420613</v>
+        <v>9.57035467930975</v>
       </c>
       <c r="D156">
-        <v>3.92698566640669</v>
+        <v>5.215525407885163</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>14.1639629080364</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>13.41762640832418</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>2.26600130960104</v>
+        <v>9.252982410920005</v>
       </c>
       <c r="C157">
-        <v>0.8206959360780884</v>
+        <v>9.546241913134018</v>
       </c>
       <c r="D157">
-        <v>3.899404913609037</v>
+        <v>5.166920276058982</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>14.11838827859671</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>13.35186790393619</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>2.238973546870903</v>
+        <v>9.185329296250416</v>
       </c>
       <c r="C158">
-        <v>0.7509471190231281</v>
+        <v>9.522154980853665</v>
       </c>
       <c r="D158">
-        <v>3.871949052578568</v>
+        <v>5.118437307215801</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>14.07288080207846</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>13.28623294022615</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>2.212184010743684</v>
+        <v>9.117864507042192</v>
       </c>
       <c r="C159">
-        <v>0.6820143533154523</v>
+        <v>9.498093925160578</v>
       </c>
       <c r="D159">
-        <v>3.844618087778199</v>
+        <v>5.070077447258508</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>14.02744058345172</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>13.22072183904103</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>2.18563204243677</v>
+        <v>9.050589142827254</v>
       </c>
       <c r="C160">
-        <v>0.6140233725353494</v>
+        <v>9.474058788404246</v>
       </c>
       <c r="D160">
-        <v>3.817412020735613</v>
+        <v>5.021841656477011</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>13.98206772696038</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>13.15533492374672</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>2.159316965311642</v>
+        <v>8.983504306459221</v>
       </c>
       <c r="C161">
-        <v>0.5471323052855667</v>
+        <v>9.450049612716855</v>
       </c>
       <c r="D161">
-        <v>3.790330850026795</v>
+        <v>4.973730910264477</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>13.93676233625873</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>13.0900725186526</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>2.133238084936468</v>
+        <v>8.916611099440507</v>
       </c>
       <c r="C162">
-        <v>0.4815428089284119</v>
+        <v>9.426066439961318</v>
       </c>
       <c r="D162">
-        <v>3.763374571258251</v>
+        <v>4.925746199198556</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>13.89152451443635</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>13.02493494974603</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>2.107394689156328</v>
+        <v>8.84991062301642</v>
       </c>
       <c r="C163">
-        <v>0.4175158521269804</v>
+        <v>9.402109311817719</v>
       </c>
       <c r="D163">
-        <v>3.736543177048089</v>
+        <v>4.877888529880623</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>13.84635436405415</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>12.95992254426019</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>2.081786048171101</v>
+        <v>8.78340398093977</v>
       </c>
       <c r="C164">
-        <v>0.3553942220905756</v>
+        <v>9.378178269756598</v>
       </c>
       <c r="D164">
-        <v>3.709836657006112</v>
+        <v>4.830158925048305</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>13.80125198728416</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>12.89503563103983</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>2.056411414621136</v>
+        <v>8.717092277233771</v>
       </c>
       <c r="C165">
-        <v>0.2956344738001135</v>
+        <v>9.354273355100309</v>
       </c>
       <c r="D165">
-        <v>3.683254997713104</v>
+        <v>4.782558424267565</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>13.75621748576708</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>12.83027454049644</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>2.03127002368027</v>
+        <v>8.65097661707558</v>
       </c>
       <c r="C166">
-        <v>0.2388510404651168</v>
+        <v>9.330394609002266</v>
       </c>
       <c r="D166">
-        <v>3.656798182699406</v>
+        <v>4.735088084222428</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>13.71125096088766</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>12.76563960465613</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>2.00636109315689</v>
+        <v>8.585058109067001</v>
       </c>
       <c r="C167">
-        <v>0.1858722471561726</v>
+        <v>9.30654207250115</v>
       </c>
       <c r="D167">
-        <v>3.630466192422928</v>
+        <v>4.687748979236793</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>13.66635251356774</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>12.70113115730187</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.981683823602758</v>
+        <v>8.519337862479242</v>
       </c>
       <c r="C168">
-        <v>0.1377951680355275</v>
+        <v>9.282715786496604</v>
       </c>
       <c r="D168">
-        <v>3.60425900424667</v>
+        <v>4.640542201685541</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>13.62152224450679</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>12.63674953388471</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1.957237398429468</v>
+        <v>8.453816988861821</v>
       </c>
       <c r="C169">
-        <v>0.09598826530203153</v>
+        <v>9.258915791800062</v>
       </c>
       <c r="D169">
-        <v>3.578176592415881</v>
+        <v>4.593468862435569</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>13.57676025406456</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>12.57249507175251</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1.933020984032192</v>
+        <v>8.388496603704636</v>
       </c>
       <c r="C170">
-        <v>0.06191367913391746</v>
+        <v>9.235142129111432</v>
       </c>
       <c r="D170">
-        <v>3.552218928034901</v>
+        <v>4.546530091304629</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>13.5320666423855</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>12.50836810996725</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.909033729921635</v>
+        <v>8.323377823616957</v>
       </c>
       <c r="C171">
-        <v>0.03659723365663956</v>
+        <v>9.211394839061505</v>
       </c>
       <c r="D171">
-        <v>3.526385979043789</v>
+        <v>4.49972703747137</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>13.4874415093738</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>12.44436898956867</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.885274768863161</v>
+        <v>8.258461768512698</v>
       </c>
       <c r="C172">
-        <v>0.01985858295771649</v>
+        <v>9.187673962195266</v>
       </c>
       <c r="D172">
-        <v>3.500677710194799</v>
+        <v>4.453060869949395</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>13.44288495474183</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>12.38049805344571</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1.861743217023736</v>
+        <v>8.193749562107596</v>
       </c>
       <c r="C173">
-        <v>0.01005510401990037</v>
+        <v>9.16397953900392</v>
       </c>
       <c r="D173">
-        <v>3.47509408302875</v>
+        <v>4.406532778012587</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>13.39839707801195</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>12.3167556464226</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.838438174126106</v>
+        <v>8.129242330076224</v>
       </c>
       <c r="C174">
-        <v>0.00486221547328134</v>
+        <v>9.140311609913985</v>
       </c>
       <c r="D174">
-        <v>3.449635055851374</v>
+        <v>4.360143971637134</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>13.35397797852761</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>12.25314211532639</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.815358723610654</v>
+        <v>8.06494120202643</v>
       </c>
       <c r="C175">
-        <v>0.002290430560555571</v>
+        <v>9.116670215310389</v>
       </c>
       <c r="D175">
-        <v>3.424300583709649</v>
+        <v>4.313895681982323</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>13.3096277555719</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>12.18965780893393</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1.792503932804328</v>
+        <v>8.000847311230135</v>
       </c>
       <c r="C176">
-        <v>0.001064553723739485</v>
+        <v>9.093055395523429</v>
       </c>
       <c r="D176">
-        <v>3.399090618368218</v>
+        <v>4.267789161793477</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>13.2653465082926</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>12.12630307809479</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.769872853097053</v>
+        <v>7.93696179358174</v>
       </c>
       <c r="C177">
-        <v>0.0004915822014037135</v>
+        <v>9.069467190868993</v>
       </c>
       <c r="D177">
-        <v>3.374005108285887</v>
+        <v>4.221825685901877</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>13.22113433554888</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>12.06307827566202</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.74746452012509</v>
+        <v>7.873285789318679</v>
       </c>
       <c r="C178">
-        <v>0.0002263134811700508</v>
+        <v>9.045905641631499</v>
       </c>
       <c r="D178">
-        <v>3.349043998592272</v>
+        <v>4.176006551662091</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>13.17699133638083</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>11.99998375660129</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1.725277953961629</v>
+        <v>7.809820442357174</v>
       </c>
       <c r="C179">
-        <v>0.0001040509661059075</v>
+        <v>9.022370788037199</v>
       </c>
       <c r="D179">
-        <v>3.324207231064616</v>
+        <v>4.130333079400217</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>13.13291760972366</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>11.93701987791708</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.703312159314183</v>
+        <v>7.746566899472828</v>
       </c>
       <c r="C180">
-        <v>4.781685956751695E-05</v>
+        <v>8.998862670349911</v>
       </c>
       <c r="D180">
-        <v>3.299494744104818</v>
+        <v>4.08480661291975</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>13.08891325414761</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>11.87418699875935</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1.681566125728912</v>
+        <v>7.683526312145323</v>
       </c>
       <c r="C181">
-        <v>2.197657852163645E-05</v>
+        <v>8.97538132880684</v>
       </c>
       <c r="D181">
-        <v>3.274906472716693</v>
+        <v>4.039428519899746</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>13.04497836845461</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>11.81148548045202</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1.660038827801572</v>
+        <v>7.620699835476446</v>
       </c>
       <c r="C182">
-        <v>1.010740472063656E-05</v>
+        <v>8.951926803578857</v>
       </c>
       <c r="D182">
-        <v>3.250442348483506</v>
+        <v>3.994200192450137</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>13.00111305139175</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>11.74891568643683</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1.638729225395081</v>
+        <v>7.558088627584527</v>
       </c>
       <c r="C183">
-        <v>4.656209020780957E-06</v>
+        <v>8.928499134906016</v>
       </c>
       <c r="D183">
-        <v>3.2261022995458</v>
+        <v>3.949123047483782</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>12.95731740153916</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>11.68647798219846</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.617636263863502</v>
+        <v>7.495693851347324</v>
       </c>
       <c r="C184">
-        <v>2.152416052331845E-06</v>
+        <v>8.905098363005745</v>
       </c>
       <c r="D184">
-        <v>3.201886250579536</v>
+        <v>3.904198527299214</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>12.91359151741996</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>11.62417273562733</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.596758874282284</v>
+        <v>7.433516673202833</v>
       </c>
       <c r="C185">
-        <v>1.002034421538048E-06</v>
+        <v>8.88172452804692</v>
       </c>
       <c r="D185">
-        <v>3.177794122774585</v>
+        <v>3.859428099951334</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>12.86993549767611</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>11.5620003167863</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.576095973684705</v>
+        <v>7.371558262762924</v>
       </c>
       <c r="C186">
-        <v>4.731147017015332E-07</v>
+        <v>8.858377670258777</v>
       </c>
       <c r="D186">
-        <v>3.153825833813584</v>
+        <v>3.814813259813762</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>12.82634944086657</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>11.4999610976798</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1.555646465304181</v>
+        <v>7.30981979420806</v>
       </c>
       <c r="C187">
-        <v>2.295736978882066E-07</v>
+        <v>8.835057829860098</v>
       </c>
       <c r="D187">
-        <v>3.129981297851173</v>
+        <v>3.770355528020218</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>12.78283344545848</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>11.43805545277657</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1.53540923882253</v>
+        <v>7.248302445184326</v>
       </c>
       <c r="C188">
-        <v>1.170955156244766E-07</v>
+        <v>8.811765047053271</v>
       </c>
       <c r="D188">
-        <v>3.106260425493649</v>
+        <v>3.726056452964838</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>12.73938761001785</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>11.37628375879076</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.515383170623691</v>
+        <v>7.1870073966221</v>
       </c>
       <c r="C189">
-        <v>6.483063530631487E-08</v>
+        <v>8.788499362077957</v>
       </c>
       <c r="D189">
-        <v>3.082663123779035</v>
+        <v>3.681917610809541</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>12.69601203308225</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>11.31464639459026</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.495567124053134</v>
+        <v>7.125935833708384</v>
       </c>
       <c r="C190">
-        <v>4.025311052763311E-08</v>
+        <v>8.765260815178923</v>
       </c>
       <c r="D190">
-        <v>3.059189296157611</v>
+        <v>3.637940605862154</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>12.65270681315052</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>11.25314374117142</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.475959949682288</v>
+        <v>7.06508894494708</v>
       </c>
       <c r="C191">
-        <v>2.841842802293808E-08</v>
+        <v>8.742049446604939</v>
       </c>
       <c r="D191">
-        <v>3.035838842472883</v>
+        <v>3.594127071138964</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>12.60947204877744</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>11.19177618200187</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.456560485578351</v>
+        <v>7.004467922099387</v>
       </c>
       <c r="C192">
-        <v>2.246914556610395E-08</v>
+        <v>8.718865296633295</v>
       </c>
       <c r="D192">
-        <v>3.012611658943064</v>
+        <v>3.550478669042592</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>12.56630783852733</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>11.13054410275453</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.437367557578721</v>
+        <v>6.944073960860962</v>
       </c>
       <c r="C193">
-        <v>1.924369748385475E-08</v>
+        <v>8.695708405557015</v>
       </c>
       <c r="D193">
-        <v>2.98950763814301</v>
+        <v>3.506997091404613</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>12.52321428095406</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>11.06944789124228</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.41837997957041</v>
+        <v>6.883908259984084</v>
       </c>
       <c r="C194">
-        <v>1.730631286738032E-08</v>
+        <v>8.672578813676649</v>
       </c>
       <c r="D194">
-        <v>2.966526668986716</v>
+        <v>3.463684060262544</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>12.48019147463418</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>11.00848793768805</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.399596553773709</v>
+        <v>6.823972021332287</v>
       </c>
       <c r="C195">
-        <v>1.598265411925435E-08</v>
+        <v>8.649476561327145</v>
       </c>
       <c r="D195">
-        <v>2.943668636710291</v>
+        <v>3.420541328456228</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>12.43723951819792</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>10.94766463457575</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.381016071030407</v>
+        <v>6.7642664503506</v>
       </c>
       <c r="C196">
-        <v>1.496678689052351E-08</v>
+        <v>8.626401688863144</v>
       </c>
       <c r="D196">
-        <v>2.920933422855511</v>
+        <v>3.377570679892353</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>12.39435851027961</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>10.88697837665022</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.36263731109588</v>
+        <v>6.704792755169303</v>
       </c>
       <c r="C197">
-        <v>1.411963007426313E-08</v>
+        <v>8.60335423664616</v>
       </c>
       <c r="D197">
-        <v>2.898320905253906</v>
+        <v>3.33477393002596</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>12.35154854949455</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>10.82642956092813</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.344459042935281</v>
+        <v>6.645552146812893</v>
       </c>
       <c r="C198">
-        <v>1.336793467496263E-08</v>
+        <v>8.580334245077818</v>
       </c>
       <c r="D198">
-        <v>2.875830958011421</v>
+        <v>3.292152926443507</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>12.30880973454956</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>10.76601858678278</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.326480025023212</v>
+        <v>6.58654583944528</v>
       </c>
       <c r="C199">
-        <v>1.26724460122291E-08</v>
+        <v>8.557341754580589</v>
       </c>
       <c r="D199">
-        <v>2.853463451493671</v>
+        <v>3.249709549299977</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>12.26614216416434</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>10.70574585587816</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.308699005647038</v>
+        <v>6.527775049467643</v>
       </c>
       <c r="C200">
-        <v>1.202991806879314E-08</v>
+        <v>8.534376805588305</v>
       </c>
       <c r="D200">
-        <v>2.831218252311762</v>
+        <v>3.207445711827208</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>12.22354593702781</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>10.64561177209323</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.29111472321327</v>
+        <v>6.4692409958978</v>
       </c>
       <c r="C201">
-        <v>1.143691465060456E-08</v>
+        <v>8.511439438573197</v>
       </c>
       <c r="D201">
-        <v>2.809095223308762</v>
+        <v>3.165363360797476</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>12.18102115191938</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>10.58561674171713</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.273725906557134</v>
+        <v>6.410944900350068</v>
       </c>
       <c r="C202">
-        <v>1.087450788111189E-08</v>
+        <v>8.488529694030023</v>
       </c>
       <c r="D202">
-        <v>2.78709422354674</v>
+        <v>3.123464476495282</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>12.13856790763084</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>10.52576117332489</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.256531275254783</v>
+        <v>6.352887986160843</v>
       </c>
       <c r="C203">
-        <v>1.0338261036355E-08</v>
+        <v>8.465647612472518</v>
       </c>
       <c r="D203">
-        <v>2.765215108294491</v>
+        <v>3.081751074062365</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>12.0961863029659</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>10.46604547775546</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.239529539938223</v>
+        <v>6.295071478939055</v>
       </c>
       <c r="C204">
-        <v>9.8387202538279E-09</v>
+        <v>8.44279323444729</v>
       </c>
       <c r="D204">
-        <v>2.743457729015851</v>
+        <v>3.040225203447431</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>12.05387643676048</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>10.4064700681399</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.222719402612474</v>
+        <v>6.237496606262594</v>
       </c>
       <c r="C205">
-        <v>9.368214341635935E-09</v>
+        <v>8.419966600526656</v>
       </c>
       <c r="D205">
-        <v>2.721821933358707</v>
+        <v>2.998888949447559</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>12.01163840789152</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>10.34703535998424</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.206099556974943</v>
+        <v>6.18016459683059</v>
       </c>
       <c r="C206">
-        <v>8.915252047969365E-09</v>
+        <v>8.397167751305808</v>
       </c>
       <c r="D206">
-        <v>2.700307565144644</v>
+        <v>2.957744432350236</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>11.96947231525552</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>10.28774177107734</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.189668688736625</v>
+        <v>6.12307668121186</v>
       </c>
       <c r="C207">
-        <v>8.487826671298613E-09</v>
+        <v>8.374396727410689</v>
       </c>
       <c r="D207">
-        <v>2.678914464359278</v>
+        <v>2.916793809139564</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>11.92737825776644</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>10.22858972141152</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.173425475945032</v>
+        <v>6.066234091223643</v>
       </c>
       <c r="C208">
-        <v>8.090295430259433E-09</v>
+        <v>8.351653569494678</v>
       </c>
       <c r="D208">
-        <v>2.657642467143275</v>
+        <v>2.876039272973225</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>11.88535633438228</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>10.16957963339363</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.157368589308516</v>
+        <v>6.009638059145132</v>
       </c>
       <c r="C209">
-        <v>7.708888819162831E-09</v>
+        <v>8.328938318234744</v>
       </c>
       <c r="D209">
-        <v>2.636491405784049</v>
+        <v>2.835483052468311</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>11.84340664408387</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>10.11071193169779</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.141496692521855</v>
+        <v>5.953289818616231</v>
       </c>
       <c r="C210">
-        <v>7.34426458521893E-09</v>
+        <v>8.306251014338502</v>
       </c>
       <c r="D210">
-        <v>2.615461108708191</v>
+        <v>2.79512741497081</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>11.80152928585618</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>10.05198704324692</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.125808442592786</v>
+        <v>5.897190603717851</v>
       </c>
       <c r="C211">
-        <v>7.005202693809101E-09</v>
+        <v>8.283591698541592</v>
       </c>
       <c r="D211">
-        <v>2.59455140047457</v>
+        <v>2.754974664934832</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>11.75972435873243</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>9.993405397254438</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.110302490169347</v>
+        <v>5.841341648351889</v>
       </c>
       <c r="C212">
-        <v>6.681830038843801E-09</v>
+        <v>8.260960411603188</v>
       </c>
       <c r="D212">
-        <v>2.573762101768202</v>
+        <v>2.71502714301065</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>11.71799196176375</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>9.934967425259879</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.094977479867731</v>
+        <v>5.785744187044574</v>
       </c>
       <c r="C213">
-        <v>6.368661371870638E-09</v>
+        <v>8.238357194312501</v>
       </c>
       <c r="D213">
-        <v>2.553093029394799</v>
+        <v>2.675287228635944</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>11.67633219400854</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>9.87667356106032</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.079832050600479</v>
+        <v>5.730399453965124</v>
       </c>
       <c r="C214">
-        <v>6.077918836939191E-09</v>
+        <v>8.215782087486769</v>
       </c>
       <c r="D214">
-        <v>2.5325439962761</v>
+        <v>2.635757340112028</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>11.63474515455058</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>9.818524240655073</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.064864835904767</v>
+        <v>5.675308682375706</v>
       </c>
       <c r="C215">
-        <v>5.803999167283994E-09</v>
+        <v>8.193235131967105</v>
       </c>
       <c r="D215">
-        <v>2.512114811445918</v>
+        <v>2.596439933160895</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>11.59323094249936</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>9.760519902393156</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.050074464270579</v>
+        <v>5.620473105333282</v>
       </c>
       <c r="C216">
-        <v>5.536720615954079E-09</v>
+        <v>8.170716368623214</v>
       </c>
       <c r="D216">
-        <v>2.491805280046944</v>
+        <v>2.557337500280012</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>11.55178965697241</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>9.702660986860508</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.03545955946855</v>
+        <v>5.565893954656145</v>
       </c>
       <c r="C217">
-        <v>5.285609053562336E-09</v>
+        <v>8.148225838352376</v>
       </c>
       <c r="D217">
-        <v>2.471615203328323</v>
+        <v>2.518452575428599</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>11.51042139709208</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>9.644947936836202</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.021018740877226</v>
+        <v>5.511572460462809</v>
       </c>
       <c r="C218">
-        <v>5.052917838255056E-09</v>
+        <v>8.125763582076093</v>
       </c>
       <c r="D218">
-        <v>2.451544378643979</v>
+        <v>2.47978773075885</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>11.46912626200766</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>9.58738119735917</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.006750623809603</v>
+        <v>5.457509851744216</v>
       </c>
       <c r="C219">
-        <v>4.824759971259944E-09</v>
+        <v>8.10332964074294</v>
       </c>
       <c r="D219">
-        <v>2.431592599451728</v>
+        <v>2.441345572780673</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>11.42790435087359</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>9.529961215731946</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.9926538198388082</v>
+        <v>5.403707355285636</v>
       </c>
       <c r="C220">
-        <v>4.606835102384236E-09</v>
+        <v>8.080924055328239</v>
       </c>
       <c r="D220">
-        <v>2.411759655313152</v>
+        <v>2.403128751262257</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>11.38675576283888</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>9.472688441451041</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.9787269371224815</v>
+        <v>5.350166195313232</v>
       </c>
       <c r="C221">
-        <v>4.407030516414016E-09</v>
+        <v>8.058546866831318</v>
       </c>
       <c r="D221">
-        <v>2.392045331894284</v>
+        <v>2.365139953828232</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>11.34568059707204</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>9.415563326145431</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.964968580725731</v>
+        <v>5.296887593910812</v>
       </c>
       <c r="C222">
-        <v>4.21317027837383E-09</v>
+        <v>8.036198116277227</v>
       </c>
       <c r="D222">
-        <v>2.372449410967044</v>
+        <v>2.32738190401066</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>11.30467895274084</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>9.358586323738766</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.9513773529425905</v>
+        <v>5.243872769901762</v>
       </c>
       <c r="C223">
-        <v>4.023473318395104E-09</v>
+        <v>8.013877844716781</v>
       </c>
       <c r="D223">
-        <v>2.352971670411513</v>
+        <v>2.289857362929052</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>11.26375092900567</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>9.301757890313613</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.9379518536157815</v>
+        <v>5.191122938625698</v>
       </c>
       <c r="C224">
-        <v>3.850471219528723E-09</v>
+        <v>7.991586093223934</v>
       </c>
       <c r="D224">
-        <v>2.333611884218966</v>
+        <v>2.252569133217638</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>11.22289662502867</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>9.245078484047831</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.9246906804545131</v>
+        <v>5.138639312169655</v>
       </c>
       <c r="C225">
-        <v>3.685861702230942E-09</v>
+        <v>7.969322902897011</v>
       </c>
       <c r="D225">
-        <v>2.314369822495751</v>
+        <v>2.215520053602817</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>11.18211613996981</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>9.188548565319071</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.9115924293501085</v>
+        <v>5.086423097910778</v>
       </c>
       <c r="C226">
-        <v>3.521646368574751E-09</v>
+        <v>7.947088314858957</v>
       </c>
       <c r="D226">
-        <v>2.295245251467991</v>
+        <v>2.178712993830971</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>11.14140957297659</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>9.132168596667901</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.8986556946893124</v>
+        <v>5.034475498840725</v>
       </c>
       <c r="C227">
-        <v>3.370133105412659E-09</v>
+        <v>7.9248823702547</v>
       </c>
       <c r="D227">
-        <v>2.276237933486968</v>
+        <v>2.142150868061947</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>11.10077702318144</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>9.075939042727772</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.8858790696651282</v>
+        <v>4.982797713837786</v>
       </c>
       <c r="C228">
-        <v>3.230148218745534E-09</v>
+        <v>7.902705110251972</v>
       </c>
       <c r="D228">
-        <v>2.257347627035356</v>
+        <v>2.105836624956881</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>11.06021858971147</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>9.019860370172273</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.87326114658501</v>
+        <v>4.931390936602973</v>
       </c>
       <c r="C229">
-        <v>3.088968251856251E-09</v>
+        <v>7.880556576041788</v>
       </c>
       <c r="D229">
-        <v>2.238574086734408</v>
+        <v>2.069773241727682</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>11.0197343716743</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>8.963933047862696</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.8608005171762271</v>
+        <v>4.880256354847943</v>
       </c>
       <c r="C230">
-        <v>2.955207038647925E-09</v>
+        <v>7.858436808835854</v>
       </c>
       <c r="D230">
-        <v>2.219917063351958</v>
+        <v>2.033963734417276</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>10.97932446814793</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>8.908157546708726</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.8484957728882377</v>
+        <v>4.829395147906363</v>
       </c>
       <c r="C231">
-        <v>2.835034570384755E-09</v>
+        <v>7.836345849866998</v>
       </c>
       <c r="D231">
-        <v>2.201376303811151</v>
+        <v>1.998411155043894</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>10.93898897819864</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>8.852534339579636</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.8363455051919129</v>
+        <v>4.778808492578264</v>
       </c>
       <c r="C232">
-        <v>2.714479709143873E-09</v>
+        <v>7.814283740389723</v>
       </c>
       <c r="D232">
-        <v>2.18295155119996</v>
+        <v>1.963118584450072</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>10.89872800086374</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>8.797063901451654</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.8243483058754842</v>
+        <v>4.728497557794065</v>
       </c>
       <c r="C233">
-        <v>2.596213110806557E-09</v>
+        <v>7.792250521677822</v>
       </c>
       <c r="D233">
-        <v>2.164642544781544</v>
+        <v>1.928089129172512</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>10.85854163514364</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>8.741746709319878</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.8125027673370999</v>
+        <v>4.678463505606268</v>
       </c>
       <c r="C234">
-        <v>2.491043726875731E-09</v>
+        <v>7.770246235024453</v>
       </c>
       <c r="D234">
-        <v>2.146449020005511</v>
+        <v>1.893325935939591</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>10.81842998001059</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>8.686583242130203</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.8008074828737242</v>
+        <v>4.628707485358388</v>
       </c>
       <c r="C235">
-        <v>2.38898098534308E-09</v>
+        <v>7.748270921742662</v>
       </c>
       <c r="D235">
-        <v>2.12837070851998</v>
+        <v>1.858832178462374</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>10.7783931344019</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>8.631573980735158</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.7892610469663631</v>
+        <v>4.579230643263209</v>
       </c>
       <c r="C236">
-        <v>2.284452642515217E-09</v>
+        <v>7.726324623162641</v>
       </c>
       <c r="D236">
-        <v>2.110407338184461</v>
+        <v>1.824611042904383</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>10.73843119721096</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>8.576719408031787</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.7778620555614628</v>
+        <v>4.530034116515101</v>
       </c>
       <c r="C237">
-        <v>2.191534014720687E-09</v>
+        <v>7.70440738063206</v>
       </c>
       <c r="D237">
-        <v>2.092558633083537</v>
+        <v>1.790665757349827</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>10.69854426728497</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>8.522020008812087</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.7666091063483506</v>
+        <v>4.481119032942563</v>
       </c>
       <c r="C238">
-        <v>2.10509703154205E-09</v>
+        <v>7.682519235517492</v>
       </c>
       <c r="D238">
-        <v>2.074824313541398</v>
+        <v>1.756999570226957</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>10.6587324434298</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>8.467476269638409</v>
       </c>
     </row>
   </sheetData>
